--- a/BackTest/2020-01-21 BackTest BTG.xlsx
+++ b/BackTest/2020-01-21 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -5071,7 +5071,7 @@
         <v>-1092.163155079998</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-760.8054550799986</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-756.5949550799986</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-756.5949550799986</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-754.0949550799986</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-754.0949550799986</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-870.4664764199986</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1171.941369519998</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-949.0607695199985</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-904.6148695199985</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-994.9270007999985</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-1032.301700799999</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-1032.301700799999</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1032.301700799999</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1032.301700799999</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1049.883900799999</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1046.883900799999</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1046.883900799999</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-1140.626300799998</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-1177.537300799999</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>32.36479920000147</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>1705.703344890001</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>1705.703344890001</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>3145.434044890001</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>4073.097544890001</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>4817.132033610002</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>4695.445992190002</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>4707.178002220002</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>4391.765602220002</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>4070.270202220002</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>4450.080332810002</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>4071.214532810002</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>3752.768332810002</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>4259.889532810002</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>4153.049132810002</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>4310.011232810001</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>4193.541732810001</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>4179.261732810001</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>3969.194832810002</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>4222.090132810002</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>4242.946132810001</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>4178.382732810001</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>3741.658332810001</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>3784.058265820001</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>3784.058265820001</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>2770.342665820001</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>2513.818265820001</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>2513.818265820001</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>2364.110665820001</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>2322.168165820001</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>2628.463965820001</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>2850.949965820001</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>1781.780765820001</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>2018.787765820001</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>1843.168945820001</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>1008.446145820001</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>736.7758458200012</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>736.7758458200012</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>600.2288458200012</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>742.7579458200012</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>742.7579458200012</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>882.2878718600011</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>798.9623718600011</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>758.0366718600011</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>16.91827186000114</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-300.0809281399988</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-3452.355928139999</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2887.390928139999</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-3641.172428139999</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-4229.234928139998</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-4095.365328139998</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-3970.122528139998</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-3991.146628139998</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-3969.689828139999</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-4186.854828139999</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-4147.295828139999</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-4029.369028139999</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-3944.829589569998</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-3957.689126429998</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-3884.889126429998</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-3709.000068719994</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-3770.073568719994</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-3597.073568719994</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-3597.073568719994</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-3597.073568719994</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-3597.073568719994</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-3621.279068719994</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-3336.733968719995</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-3731.474568719995</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-3678.657168719995</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-3678.657168719995</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-2098.475512249993</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-2132.062012249993</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -24772,11 +24772,17 @@
         <v>-8225.202992969993</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>11710</v>
+      </c>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24805,11 +24811,17 @@
         <v>-8851.778092969993</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>11630</v>
+      </c>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24838,11 +24850,17 @@
         <v>-8818.255992969993</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>11610</v>
+      </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24871,11 +24889,17 @@
         <v>-8818.255992969993</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>11650</v>
+      </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -24904,11 +24928,17 @@
         <v>-8818.255992969993</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>11650</v>
+      </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -24937,11 +24967,17 @@
         <v>-9216.858492969994</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>11650</v>
+      </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -24970,11 +25006,17 @@
         <v>-10199.54039296999</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>11610</v>
+      </c>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25003,7 +25045,7 @@
         <v>-10199.54039296999</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I746" t="n">
         <v>11590</v>
@@ -25011,7 +25053,7 @@
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L746" t="n">
@@ -25042,7 +25084,7 @@
         <v>-9977.111892969993</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I747" t="n">
         <v>11590</v>
@@ -25081,7 +25123,7 @@
         <v>-9977.111892969993</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I748" t="n">
         <v>11610</v>
@@ -25120,7 +25162,7 @@
         <v>-9977.111892969993</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I749" t="n">
         <v>11610</v>
@@ -25159,7 +25201,7 @@
         <v>-9869.799172559993</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I750" t="n">
         <v>11610</v>
@@ -25198,7 +25240,7 @@
         <v>-10220.95617255999</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I751" t="n">
         <v>11670</v>
@@ -25237,7 +25279,7 @@
         <v>-10220.95617255999</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I752" t="n">
         <v>11660</v>
@@ -25276,7 +25318,7 @@
         <v>-9343.392472559992</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I753" t="n">
         <v>11660</v>
@@ -25315,7 +25357,7 @@
         <v>-9343.392472559992</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I754" t="n">
         <v>11680</v>
@@ -25354,7 +25396,7 @@
         <v>-9343.392472559992</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I755" t="n">
         <v>11680</v>
@@ -25393,7 +25435,7 @@
         <v>-9020.725872559991</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I756" t="n">
         <v>11680</v>
@@ -25432,7 +25474,7 @@
         <v>-9306.616472559992</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I757" t="n">
         <v>11710</v>
@@ -25471,7 +25513,7 @@
         <v>-8729.002372559991</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I758" t="n">
         <v>11700</v>
@@ -25510,7 +25552,7 @@
         <v>-8043.549272559992</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I759" t="n">
         <v>11800</v>
@@ -25549,9 +25591,11 @@
         <v>-6942.464672559991</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>11820</v>
+      </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
@@ -26363,7 +26407,7 @@
         <v>4791.702630440009</v>
       </c>
       <c r="H782" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -27636,6 +27680,6 @@
       <c r="M816" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest BTG.xlsx
+++ b/BackTest/2020-01-21 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -8074,7 +8074,7 @@
         <v>4450.080332810002</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>4071.214532810002</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>3752.768332810002</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>4259.889532810002</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>4153.049132810002</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>4310.011232810001</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>4193.541732810001</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>4179.261732810001</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>3969.194832810002</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>4222.090132810002</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>4242.946132810001</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>4178.382732810001</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>3741.658332810001</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>3784.058265820001</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>3784.058265820001</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>2770.342665820001</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>2513.818265820001</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>2513.818265820001</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>2364.110665820001</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>2322.168165820001</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>2628.463965820001</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>1781.780765820001</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>2018.787765820001</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>1843.168945820001</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>1008.446145820001</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>736.7758458200012</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>736.7758458200012</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>600.2288458200012</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>742.7579458200012</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>742.7579458200012</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>882.2878718600011</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>798.9623718600011</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>758.0366718600011</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>16.91827186000114</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-300.0809281399988</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-3452.355928139999</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2887.390928139999</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-3641.172428139999</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-4229.234928139998</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-4095.365328139998</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-3970.122528139998</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-3991.146628139998</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-3969.689828139999</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-4186.854828139999</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-4147.295828139999</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-4029.369028139999</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-3944.829589569998</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-3957.689126429998</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -24772,212 +24772,188 @@
         <v>-8225.202992969993</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
-      </c>
-      <c r="I739" t="n">
-        <v>11710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
+      <c r="K739" t="inlineStr"/>
+      <c r="L739" t="n">
+        <v>1</v>
+      </c>
+      <c r="M739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="n">
+        <v>11690</v>
+      </c>
+      <c r="C740" t="n">
+        <v>11610</v>
+      </c>
+      <c r="D740" t="n">
+        <v>11690</v>
+      </c>
+      <c r="E740" t="n">
+        <v>11610</v>
+      </c>
+      <c r="F740" t="n">
+        <v>626.5751</v>
+      </c>
+      <c r="G740" t="n">
+        <v>-8851.778092969993</v>
+      </c>
+      <c r="H740" t="n">
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
+      <c r="L740" t="n">
+        <v>1</v>
+      </c>
+      <c r="M740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="n">
+        <v>11650</v>
+      </c>
+      <c r="C741" t="n">
+        <v>11650</v>
+      </c>
+      <c r="D741" t="n">
+        <v>11650</v>
+      </c>
+      <c r="E741" t="n">
+        <v>11650</v>
+      </c>
+      <c r="F741" t="n">
+        <v>33.5221</v>
+      </c>
+      <c r="G741" t="n">
+        <v>-8818.255992969993</v>
+      </c>
+      <c r="H741" t="n">
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
+      <c r="L741" t="n">
+        <v>1</v>
+      </c>
+      <c r="M741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" t="n">
+        <v>11630</v>
+      </c>
+      <c r="C742" t="n">
+        <v>11650</v>
+      </c>
+      <c r="D742" t="n">
+        <v>11650</v>
+      </c>
+      <c r="E742" t="n">
+        <v>11630</v>
+      </c>
+      <c r="F742" t="n">
+        <v>4.1932</v>
+      </c>
+      <c r="G742" t="n">
+        <v>-8818.255992969993</v>
+      </c>
+      <c r="H742" t="n">
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
+      <c r="L742" t="n">
+        <v>1</v>
+      </c>
+      <c r="M742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" t="n">
+        <v>11650</v>
+      </c>
+      <c r="C743" t="n">
+        <v>11650</v>
+      </c>
+      <c r="D743" t="n">
+        <v>11650</v>
+      </c>
+      <c r="E743" t="n">
+        <v>11650</v>
+      </c>
+      <c r="F743" t="n">
+        <v>248.6516</v>
+      </c>
+      <c r="G743" t="n">
+        <v>-8818.255992969993</v>
+      </c>
+      <c r="H743" t="n">
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>11650</v>
+      </c>
+      <c r="J743" t="n">
+        <v>11650</v>
+      </c>
+      <c r="K743" t="inlineStr"/>
+      <c r="L743" t="n">
+        <v>1</v>
+      </c>
+      <c r="M743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" t="n">
+        <v>11650</v>
+      </c>
+      <c r="C744" t="n">
+        <v>11610</v>
+      </c>
+      <c r="D744" t="n">
+        <v>11650</v>
+      </c>
+      <c r="E744" t="n">
+        <v>11610</v>
+      </c>
+      <c r="F744" t="n">
+        <v>398.6025</v>
+      </c>
+      <c r="G744" t="n">
+        <v>-9216.858492969994</v>
+      </c>
+      <c r="H744" t="n">
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>11650</v>
+      </c>
+      <c r="J744" t="n">
+        <v>11650</v>
+      </c>
+      <c r="K744" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L739" t="n">
-        <v>1</v>
-      </c>
-      <c r="M739" t="inlineStr"/>
-    </row>
-    <row r="740">
-      <c r="A740" s="1" t="n">
-        <v>738</v>
-      </c>
-      <c r="B740" t="n">
-        <v>11690</v>
-      </c>
-      <c r="C740" t="n">
-        <v>11610</v>
-      </c>
-      <c r="D740" t="n">
-        <v>11690</v>
-      </c>
-      <c r="E740" t="n">
-        <v>11610</v>
-      </c>
-      <c r="F740" t="n">
-        <v>626.5751</v>
-      </c>
-      <c r="G740" t="n">
-        <v>-8851.778092969993</v>
-      </c>
-      <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>11630</v>
-      </c>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L740" t="n">
-        <v>1</v>
-      </c>
-      <c r="M740" t="inlineStr"/>
-    </row>
-    <row r="741">
-      <c r="A741" s="1" t="n">
-        <v>739</v>
-      </c>
-      <c r="B741" t="n">
-        <v>11650</v>
-      </c>
-      <c r="C741" t="n">
-        <v>11650</v>
-      </c>
-      <c r="D741" t="n">
-        <v>11650</v>
-      </c>
-      <c r="E741" t="n">
-        <v>11650</v>
-      </c>
-      <c r="F741" t="n">
-        <v>33.5221</v>
-      </c>
-      <c r="G741" t="n">
-        <v>-8818.255992969993</v>
-      </c>
-      <c r="H741" t="n">
-        <v>1</v>
-      </c>
-      <c r="I741" t="n">
-        <v>11610</v>
-      </c>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L741" t="n">
-        <v>1</v>
-      </c>
-      <c r="M741" t="inlineStr"/>
-    </row>
-    <row r="742">
-      <c r="A742" s="1" t="n">
-        <v>740</v>
-      </c>
-      <c r="B742" t="n">
-        <v>11630</v>
-      </c>
-      <c r="C742" t="n">
-        <v>11650</v>
-      </c>
-      <c r="D742" t="n">
-        <v>11650</v>
-      </c>
-      <c r="E742" t="n">
-        <v>11630</v>
-      </c>
-      <c r="F742" t="n">
-        <v>4.1932</v>
-      </c>
-      <c r="G742" t="n">
-        <v>-8818.255992969993</v>
-      </c>
-      <c r="H742" t="n">
-        <v>1</v>
-      </c>
-      <c r="I742" t="n">
-        <v>11650</v>
-      </c>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L742" t="n">
-        <v>1</v>
-      </c>
-      <c r="M742" t="inlineStr"/>
-    </row>
-    <row r="743">
-      <c r="A743" s="1" t="n">
-        <v>741</v>
-      </c>
-      <c r="B743" t="n">
-        <v>11650</v>
-      </c>
-      <c r="C743" t="n">
-        <v>11650</v>
-      </c>
-      <c r="D743" t="n">
-        <v>11650</v>
-      </c>
-      <c r="E743" t="n">
-        <v>11650</v>
-      </c>
-      <c r="F743" t="n">
-        <v>248.6516</v>
-      </c>
-      <c r="G743" t="n">
-        <v>-8818.255992969993</v>
-      </c>
-      <c r="H743" t="n">
-        <v>1</v>
-      </c>
-      <c r="I743" t="n">
-        <v>11650</v>
-      </c>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L743" t="n">
-        <v>1</v>
-      </c>
-      <c r="M743" t="inlineStr"/>
-    </row>
-    <row r="744">
-      <c r="A744" s="1" t="n">
-        <v>742</v>
-      </c>
-      <c r="B744" t="n">
-        <v>11650</v>
-      </c>
-      <c r="C744" t="n">
-        <v>11610</v>
-      </c>
-      <c r="D744" t="n">
-        <v>11650</v>
-      </c>
-      <c r="E744" t="n">
-        <v>11610</v>
-      </c>
-      <c r="F744" t="n">
-        <v>398.6025</v>
-      </c>
-      <c r="G744" t="n">
-        <v>-9216.858492969994</v>
-      </c>
-      <c r="H744" t="n">
-        <v>1</v>
-      </c>
-      <c r="I744" t="n">
-        <v>11650</v>
-      </c>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25011,7 +24987,9 @@
       <c r="I745" t="n">
         <v>11610</v>
       </c>
-      <c r="J745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>11650</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25050,7 +25028,9 @@
       <c r="I746" t="n">
         <v>11590</v>
       </c>
-      <c r="J746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>11650</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25089,7 +25069,9 @@
       <c r="I747" t="n">
         <v>11590</v>
       </c>
-      <c r="J747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>11650</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25128,7 +25110,9 @@
       <c r="I748" t="n">
         <v>11610</v>
       </c>
-      <c r="J748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>11650</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25167,7 +25151,9 @@
       <c r="I749" t="n">
         <v>11610</v>
       </c>
-      <c r="J749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>11650</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25206,7 +25192,9 @@
       <c r="I750" t="n">
         <v>11610</v>
       </c>
-      <c r="J750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>11650</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25245,7 +25233,9 @@
       <c r="I751" t="n">
         <v>11670</v>
       </c>
-      <c r="J751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>11650</v>
+      </c>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25284,7 +25274,9 @@
       <c r="I752" t="n">
         <v>11660</v>
       </c>
-      <c r="J752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>11650</v>
+      </c>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25323,7 +25315,9 @@
       <c r="I753" t="n">
         <v>11660</v>
       </c>
-      <c r="J753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>11650</v>
+      </c>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25362,7 +25356,9 @@
       <c r="I754" t="n">
         <v>11680</v>
       </c>
-      <c r="J754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>11650</v>
+      </c>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25401,7 +25397,9 @@
       <c r="I755" t="n">
         <v>11680</v>
       </c>
-      <c r="J755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>11650</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25440,7 +25438,9 @@
       <c r="I756" t="n">
         <v>11680</v>
       </c>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>11650</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25479,7 +25479,9 @@
       <c r="I757" t="n">
         <v>11710</v>
       </c>
-      <c r="J757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>11650</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25518,7 +25520,9 @@
       <c r="I758" t="n">
         <v>11700</v>
       </c>
-      <c r="J758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>11650</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25552,12 +25556,12 @@
         <v>-8043.549272559992</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
-      </c>
-      <c r="I759" t="n">
-        <v>11800</v>
-      </c>
-      <c r="J759" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>11650</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25591,12 +25595,12 @@
         <v>-6942.464672559991</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
-      </c>
-      <c r="I760" t="n">
-        <v>11820</v>
-      </c>
-      <c r="J760" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>11650</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25633,7 +25637,9 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>11650</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25670,7 +25676,9 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>11650</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25707,7 +25715,9 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>11650</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25744,7 +25754,9 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>11650</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25781,7 +25793,9 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>11650</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25818,7 +25832,9 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>11650</v>
+      </c>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25855,7 +25871,9 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>11650</v>
+      </c>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25892,7 +25910,9 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>11650</v>
+      </c>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25929,7 +25949,9 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>11650</v>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25966,7 +25988,9 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>11650</v>
+      </c>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26003,7 +26027,9 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>11650</v>
+      </c>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26040,7 +26066,9 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>11650</v>
+      </c>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26077,7 +26105,9 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>11650</v>
+      </c>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26114,7 +26144,9 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>11650</v>
+      </c>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26151,7 +26183,9 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>11650</v>
+      </c>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26188,7 +26222,9 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>11650</v>
+      </c>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26225,7 +26261,9 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>11650</v>
+      </c>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26262,7 +26300,9 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>11650</v>
+      </c>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26299,7 +26339,9 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>11650</v>
+      </c>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26336,7 +26378,9 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>11650</v>
+      </c>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26373,7 +26417,9 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>11650</v>
+      </c>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26410,7 +26456,9 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>11650</v>
+      </c>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26447,7 +26495,9 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>11650</v>
+      </c>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26484,7 +26534,9 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>11650</v>
+      </c>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26521,7 +26573,9 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>11650</v>
+      </c>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26555,17 +26609,19 @@
         <v>4086.617530440009</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>11650</v>
+      </c>
       <c r="K786" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L786" t="n">
-        <v>1</v>
+        <v>1.047360515021459</v>
       </c>
       <c r="M786" t="inlineStr"/>
     </row>
@@ -26592,15 +26648,11 @@
         <v>4086.617530440009</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26629,15 +26681,11 @@
         <v>5474.472863770009</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26666,15 +26714,11 @@
         <v>5356.886563770009</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26703,15 +26747,11 @@
         <v>5140.502963770009</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26740,15 +26780,11 @@
         <v>4805.040795260009</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26777,15 +26813,11 @@
         <v>4467.982295260009</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26814,15 +26846,11 @@
         <v>4467.982295260009</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26851,15 +26879,11 @@
         <v>4572.865195260008</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26888,15 +26912,11 @@
         <v>4572.865195260008</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26925,15 +26945,11 @@
         <v>4769.266995260008</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26962,15 +26978,11 @@
         <v>4769.266995260008</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26999,15 +27011,11 @@
         <v>5081.621595260008</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27040,11 +27048,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27077,11 +27081,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27114,11 +27114,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27151,11 +27147,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27188,11 +27180,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27225,11 +27213,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27262,11 +27246,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27295,15 +27275,11 @@
         <v>4756.275656470008</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27336,11 +27312,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27373,11 +27345,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27410,11 +27378,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27447,11 +27411,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27484,11 +27444,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27521,11 +27477,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27558,11 +27510,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27595,11 +27543,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27632,11 +27576,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27669,17 +27609,13 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
       <c r="M816" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest BTG.xlsx
+++ b/BackTest/2020-01-21 BackTest BTG.xlsx
@@ -7909,7 +7909,7 @@
         <v>4817.132033610002</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>4695.445992190002</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>4707.178002220002</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>4391.765602220002</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>4070.270202220002</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>4450.080332810002</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>4071.214532810002</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>3752.768332810002</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>4259.889532810002</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>4153.049132810002</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>4310.011232810001</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>4193.541732810001</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>4179.261732810001</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>3969.194832810002</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>4222.090132810002</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>4242.946132810001</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>4178.382732810001</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>3741.658332810001</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>3784.058265820001</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>3784.058265820001</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>2770.342665820001</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>2513.818265820001</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>2513.818265820001</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>2364.110665820001</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>2322.168165820001</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>2322.168165820001</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>2898.874965820001</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>2898.874965820001</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>2924.123265820001</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>2850.949965820001</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>2850.949965820001</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -24904,14 +24904,10 @@
         <v>-8818.255992969993</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
-      </c>
-      <c r="I743" t="n">
-        <v>11650</v>
-      </c>
-      <c r="J743" t="n">
-        <v>11650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
@@ -24941,183 +24937,149 @@
         <v>-9216.858492969994</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
-      </c>
-      <c r="I744" t="n">
-        <v>11650</v>
-      </c>
-      <c r="J744" t="n">
-        <v>11650</v>
-      </c>
-      <c r="K744" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
+      <c r="L744" t="n">
+        <v>1</v>
+      </c>
+      <c r="M744" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" t="n">
+        <v>11610</v>
+      </c>
+      <c r="C745" t="n">
+        <v>11590</v>
+      </c>
+      <c r="D745" t="n">
+        <v>11610</v>
+      </c>
+      <c r="E745" t="n">
+        <v>11580</v>
+      </c>
+      <c r="F745" t="n">
+        <v>982.6819</v>
+      </c>
+      <c r="G745" t="n">
+        <v>-10199.54039296999</v>
+      </c>
+      <c r="H745" t="n">
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
+      <c r="L745" t="n">
+        <v>1</v>
+      </c>
+      <c r="M745" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" t="n">
+        <v>11590</v>
+      </c>
+      <c r="C746" t="n">
+        <v>11590</v>
+      </c>
+      <c r="D746" t="n">
+        <v>11590</v>
+      </c>
+      <c r="E746" t="n">
+        <v>11580</v>
+      </c>
+      <c r="F746" t="n">
+        <v>602.7692</v>
+      </c>
+      <c r="G746" t="n">
+        <v>-10199.54039296999</v>
+      </c>
+      <c r="H746" t="n">
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
+      <c r="L746" t="n">
+        <v>1</v>
+      </c>
+      <c r="M746" t="inlineStr"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" t="n">
+        <v>11610</v>
+      </c>
+      <c r="C747" t="n">
+        <v>11610</v>
+      </c>
+      <c r="D747" t="n">
+        <v>11610</v>
+      </c>
+      <c r="E747" t="n">
+        <v>11590</v>
+      </c>
+      <c r="F747" t="n">
+        <v>222.4285</v>
+      </c>
+      <c r="G747" t="n">
+        <v>-9977.111892969993</v>
+      </c>
+      <c r="H747" t="n">
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
+      <c r="L747" t="n">
+        <v>1</v>
+      </c>
+      <c r="M747" t="inlineStr"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" t="n">
+        <v>11610</v>
+      </c>
+      <c r="C748" t="n">
+        <v>11610</v>
+      </c>
+      <c r="D748" t="n">
+        <v>11610</v>
+      </c>
+      <c r="E748" t="n">
+        <v>11600</v>
+      </c>
+      <c r="F748" t="n">
+        <v>276.4218</v>
+      </c>
+      <c r="G748" t="n">
+        <v>-9977.111892969993</v>
+      </c>
+      <c r="H748" t="n">
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>11610</v>
+      </c>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L744" t="n">
-        <v>1</v>
-      </c>
-      <c r="M744" t="inlineStr"/>
-    </row>
-    <row r="745">
-      <c r="A745" s="1" t="n">
-        <v>743</v>
-      </c>
-      <c r="B745" t="n">
-        <v>11610</v>
-      </c>
-      <c r="C745" t="n">
-        <v>11590</v>
-      </c>
-      <c r="D745" t="n">
-        <v>11610</v>
-      </c>
-      <c r="E745" t="n">
-        <v>11580</v>
-      </c>
-      <c r="F745" t="n">
-        <v>982.6819</v>
-      </c>
-      <c r="G745" t="n">
-        <v>-10199.54039296999</v>
-      </c>
-      <c r="H745" t="n">
-        <v>1</v>
-      </c>
-      <c r="I745" t="n">
-        <v>11610</v>
-      </c>
-      <c r="J745" t="n">
-        <v>11650</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L745" t="n">
-        <v>1</v>
-      </c>
-      <c r="M745" t="inlineStr"/>
-    </row>
-    <row r="746">
-      <c r="A746" s="1" t="n">
-        <v>744</v>
-      </c>
-      <c r="B746" t="n">
-        <v>11590</v>
-      </c>
-      <c r="C746" t="n">
-        <v>11590</v>
-      </c>
-      <c r="D746" t="n">
-        <v>11590</v>
-      </c>
-      <c r="E746" t="n">
-        <v>11580</v>
-      </c>
-      <c r="F746" t="n">
-        <v>602.7692</v>
-      </c>
-      <c r="G746" t="n">
-        <v>-10199.54039296999</v>
-      </c>
-      <c r="H746" t="n">
-        <v>1</v>
-      </c>
-      <c r="I746" t="n">
-        <v>11590</v>
-      </c>
-      <c r="J746" t="n">
-        <v>11650</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L746" t="n">
-        <v>1</v>
-      </c>
-      <c r="M746" t="inlineStr"/>
-    </row>
-    <row r="747">
-      <c r="A747" s="1" t="n">
-        <v>745</v>
-      </c>
-      <c r="B747" t="n">
-        <v>11610</v>
-      </c>
-      <c r="C747" t="n">
-        <v>11610</v>
-      </c>
-      <c r="D747" t="n">
-        <v>11610</v>
-      </c>
-      <c r="E747" t="n">
-        <v>11590</v>
-      </c>
-      <c r="F747" t="n">
-        <v>222.4285</v>
-      </c>
-      <c r="G747" t="n">
-        <v>-9977.111892969993</v>
-      </c>
-      <c r="H747" t="n">
-        <v>1</v>
-      </c>
-      <c r="I747" t="n">
-        <v>11590</v>
-      </c>
-      <c r="J747" t="n">
-        <v>11650</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L747" t="n">
-        <v>1</v>
-      </c>
-      <c r="M747" t="inlineStr"/>
-    </row>
-    <row r="748">
-      <c r="A748" s="1" t="n">
-        <v>746</v>
-      </c>
-      <c r="B748" t="n">
-        <v>11610</v>
-      </c>
-      <c r="C748" t="n">
-        <v>11610</v>
-      </c>
-      <c r="D748" t="n">
-        <v>11610</v>
-      </c>
-      <c r="E748" t="n">
-        <v>11600</v>
-      </c>
-      <c r="F748" t="n">
-        <v>276.4218</v>
-      </c>
-      <c r="G748" t="n">
-        <v>-9977.111892969993</v>
-      </c>
-      <c r="H748" t="n">
-        <v>1</v>
-      </c>
-      <c r="I748" t="n">
-        <v>11610</v>
-      </c>
-      <c r="J748" t="n">
-        <v>11650</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25151,9 +25113,7 @@
       <c r="I749" t="n">
         <v>11610</v>
       </c>
-      <c r="J749" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25192,9 +25152,7 @@
       <c r="I750" t="n">
         <v>11610</v>
       </c>
-      <c r="J750" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25233,9 +25191,7 @@
       <c r="I751" t="n">
         <v>11670</v>
       </c>
-      <c r="J751" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25274,9 +25230,7 @@
       <c r="I752" t="n">
         <v>11660</v>
       </c>
-      <c r="J752" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25315,9 +25269,7 @@
       <c r="I753" t="n">
         <v>11660</v>
       </c>
-      <c r="J753" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25356,9 +25308,7 @@
       <c r="I754" t="n">
         <v>11680</v>
       </c>
-      <c r="J754" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25397,9 +25347,7 @@
       <c r="I755" t="n">
         <v>11680</v>
       </c>
-      <c r="J755" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25438,9 +25386,7 @@
       <c r="I756" t="n">
         <v>11680</v>
       </c>
-      <c r="J756" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25479,9 +25425,7 @@
       <c r="I757" t="n">
         <v>11710</v>
       </c>
-      <c r="J757" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25520,9 +25464,7 @@
       <c r="I758" t="n">
         <v>11700</v>
       </c>
-      <c r="J758" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25556,12 +25498,12 @@
         <v>-8043.549272559992</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>11650</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>11800</v>
+      </c>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25598,9 +25540,7 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25637,9 +25577,7 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25676,9 +25614,7 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25715,9 +25651,7 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25754,9 +25688,7 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25793,9 +25725,7 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25832,9 +25762,7 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25871,9 +25799,7 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25910,9 +25836,7 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25949,9 +25873,7 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25988,9 +25910,7 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26027,9 +25947,7 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26066,9 +25984,7 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26105,9 +26021,7 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26144,9 +26058,7 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26183,9 +26095,7 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26222,9 +26132,7 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26261,9 +26169,7 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26300,9 +26206,7 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26339,9 +26243,7 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26378,9 +26280,7 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26417,9 +26317,7 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26456,9 +26354,7 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26495,9 +26391,7 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26534,9 +26428,7 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26573,9 +26465,7 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26609,19 +26499,17 @@
         <v>4086.617530440009</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>11650</v>
-      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L786" t="n">
-        <v>1.047360515021459</v>
+        <v>1</v>
       </c>
       <c r="M786" t="inlineStr"/>
     </row>
@@ -26648,11 +26536,15 @@
         <v>4086.617530440009</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26681,11 +26573,15 @@
         <v>5474.472863770009</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26714,11 +26610,15 @@
         <v>5356.886563770009</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26747,11 +26647,15 @@
         <v>5140.502963770009</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26780,11 +26684,15 @@
         <v>4805.040795260009</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26813,11 +26721,15 @@
         <v>4467.982295260009</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26846,11 +26758,15 @@
         <v>4467.982295260009</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26879,11 +26795,15 @@
         <v>4572.865195260008</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26912,11 +26832,15 @@
         <v>4572.865195260008</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26945,11 +26869,15 @@
         <v>4769.266995260008</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26978,11 +26906,15 @@
         <v>4769.266995260008</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27011,11 +26943,15 @@
         <v>5081.621595260008</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27048,7 +26984,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27081,7 +27021,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27114,7 +27058,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27147,7 +27095,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27180,7 +27132,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27213,7 +27169,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27246,7 +27206,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27275,11 +27239,15 @@
         <v>4756.275656470008</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27312,7 +27280,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27345,7 +27317,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27378,7 +27354,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27411,7 +27391,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27444,7 +27428,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27477,7 +27465,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27510,7 +27502,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27543,7 +27539,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27576,7 +27576,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27609,7 +27613,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
